--- a/results/compare-password-sync-11salt.xlsx
+++ b/results/compare-password-sync-11salt.xlsx
@@ -37,7 +37,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="nan-compare-password-sync-11salt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-sync-11salt.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-sync-11salt.csv" decimal="," thousands="." comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -48,7 +48,7 @@
     </textPr>
   </connection>
   <connection id="2" name="nan-compare-password-sync-11salt1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-sync-11salt.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/nan-compare-password-sync-11salt.csv" decimal="," thousands="." comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -59,7 +59,7 @@
     </textPr>
   </connection>
   <connection id="3" name="napi-compare-password-sync-11salt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/napi-compare-password-sync-11salt.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/napi-compare-password-sync-11salt.csv" decimal="," thousands="." comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -70,7 +70,7 @@
     </textPr>
   </connection>
   <connection id="4" name="napi-compare-password-sync-11salt1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/napi-compare-password-sync-11salt.csv" decimal="," thousands="." comma="1">
+    <textPr fileType="mac" sourceFile="/Users/nicoladelgobbo/Documents/GitHub/bcrypt-perf/results/napi-compare-password-sync-11salt.csv" decimal="," thousands="." comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -205,11 +205,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="napi-compare-password-sync-11salt_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="napi-compare-password-sync-11salt" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="napi-compare-password-sync-11salt" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="napi-compare-password-sync-11salt_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51594,8 +51594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A966" workbookViewId="0">
+      <selection activeCell="J993" sqref="J993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
